--- a/libs/pic/Tables.xlsx
+++ b/libs/pic/Tables.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzeng/Library/CloudStorage/GoogleDrive-wz192@georgetown.edu/My Drive/GU/Teach/2026-01-Spring/GLOH-6604/gloh6604-s3/libs/pic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64610E81-C29B-3B43-B3CF-F06C53C0827A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D605523-F26A-DA49-9C02-58E44EDD3301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21400" yWindow="1440" windowWidth="28040" windowHeight="17180" activeTab="2" xr2:uid="{AE6DB37F-7938-6541-8D86-E0AAFA224233}"/>
+    <workbookView xWindow="14880" yWindow="1240" windowWidth="28060" windowHeight="17200" activeTab="5" xr2:uid="{AE6DB37F-7938-6541-8D86-E0AAFA224233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="EQ-5D" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t xml:space="preserve">Duration </t>
   </si>
@@ -86,13 +89,167 @@
   </si>
   <si>
     <t>Life expectancy at age of death (years)</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>I have no problems in walking about</t>
+  </si>
+  <si>
+    <t>I have some problems in walking about</t>
+  </si>
+  <si>
+    <t>I am confined to bed</t>
+  </si>
+  <si>
+    <t>Self-Care</t>
+  </si>
+  <si>
+    <t>I have no problems with self-care</t>
+  </si>
+  <si>
+    <t>I have some problems washing or dressing myself</t>
+  </si>
+  <si>
+    <t>I am unable to wash or dress myself</t>
+  </si>
+  <si>
+    <t>I have no problems with performing my usual activities</t>
+  </si>
+  <si>
+    <t>I have some problems with performing my usual activities</t>
+  </si>
+  <si>
+    <t>I am unable to perform my usual activities</t>
+  </si>
+  <si>
+    <t>Pain/Discomfort</t>
+  </si>
+  <si>
+    <t>I have no pain or discomfort</t>
+  </si>
+  <si>
+    <t>I have moderate pain or discomfort</t>
+  </si>
+  <si>
+    <t>I have extreme pain or discomfort</t>
+  </si>
+  <si>
+    <t>Anxiety/Depression</t>
+  </si>
+  <si>
+    <t>I am not anxious or depressed</t>
+  </si>
+  <si>
+    <t>I am moderately anxious or depressed</t>
+  </si>
+  <si>
+    <t>I am extremely anxious or depressed</t>
+  </si>
+  <si>
+    <t>Constant (if any disfunction)</t>
+  </si>
+  <si>
+    <t>N3 (if any dimnsion is at level 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficients </t>
+  </si>
+  <si>
+    <t>Usual Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters </t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Total population</t>
+  </si>
+  <si>
+    <t>Age distribution</t>
+  </si>
+  <si>
+    <t>0-39</t>
+  </si>
+  <si>
+    <t>40-59</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>Overall diabetes prevalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total diabetes deaths </t>
+  </si>
+  <si>
+    <t>Average age at death from diabetes (years)</t>
+  </si>
+  <si>
+    <t>Life expectancy at age 62 (years)</t>
+  </si>
+  <si>
+    <t>Epidemiological information</t>
+  </si>
+  <si>
+    <t>Complication breakdown</t>
+  </si>
+  <si>
+    <t>Uncomplicated diabetes</t>
+  </si>
+  <si>
+    <t>Moderate complication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe complication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability weights </t>
+  </si>
+  <si>
+    <t>YLL</t>
+  </si>
+  <si>
+    <t>Life years lost per case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability weight </t>
+  </si>
+  <si>
+    <t>Number of cases</t>
+  </si>
+  <si>
+    <t>Total YLD</t>
+  </si>
+  <si>
+    <t>DALYs per 100,000 population</t>
+  </si>
+  <si>
+    <t>Total  burden of disease</t>
+  </si>
+  <si>
+    <t>Type of complications</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +263,19 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -129,10 +299,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96006006-6F72-A94A-9C8B-C4193B37CAE4}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1778,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CC1E1D-7B4C-B842-8CDE-1531F7FA9521}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1867,4 +2042,776 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE5B8C3-97A2-DB42-B147-D8F07C4A21C6}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1C2E9-477B-F743-8E76-8D4987ED79A8}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <f>B10</f>
+        <v>3000</v>
+      </c>
+      <c r="H2">
+        <f>F2*G2</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>5000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <f>$B$3*$B$9*B15</f>
+        <v>280000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="0">F4*G4</f>
+        <v>13720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>2400000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G5">
+        <f>$B$3*$B$9*B16</f>
+        <v>80000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>2100000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G6">
+        <f>$B$3*$B$9*B17</f>
+        <v>40000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>1500000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H4:H6)</f>
+        <v>32160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <f>H2+H7</f>
+        <v>98160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="7">
+        <f>H8/B3*100000</f>
+        <v>1963.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D918A320-60E2-1247-8220-6DDDFA63C261}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <f>B10</f>
+        <v>2000</v>
+      </c>
+      <c r="H2">
+        <f>F2*G2</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>5000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <f>$B$3*$B$9*B15</f>
+        <v>280000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="0">F4*G4</f>
+        <v>13720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>2400000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G5">
+        <f>$B$3*$B$9*B16</f>
+        <v>100000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>2100000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G6">
+        <f>$B$3*$B$9*B17</f>
+        <v>20000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>1500000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H4:H6)</f>
+        <v>30920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <f>H2+H7</f>
+        <v>74920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="7">
+        <f>H8/B3*100000</f>
+        <v>1498.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/libs/pic/Tables.xlsx
+++ b/libs/pic/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuzeng/Library/CloudStorage/GoogleDrive-wz192@georgetown.edu/My Drive/GU/Teach/2026-01-Spring/GLOH-6604/gloh6604-s3/libs/pic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D605523-F26A-DA49-9C02-58E44EDD3301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24680224-8E97-D74C-AF64-A50CFCB62320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="1240" windowWidth="28060" windowHeight="17200" activeTab="5" xr2:uid="{AE6DB37F-7938-6541-8D86-E0AAFA224233}"/>
+    <workbookView xWindow="10340" yWindow="1240" windowWidth="28060" windowHeight="17200" xr2:uid="{AE6DB37F-7938-6541-8D86-E0AAFA224233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Discount factor</t>
   </si>
   <si>
-    <t>Disounted life years</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>Discounted life years</t>
   </si>
 </sst>
 </file>
@@ -644,15 +644,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955735A6-AEC5-FA4D-B9B2-8A0E30CD3C01}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
@@ -796,16 +796,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1965,13 +1965,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2009,15 +2009,15 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.25</v>
@@ -2060,10 +2060,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>6.9000000000000006E-2</v>
@@ -2093,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0.314</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0.104</v>
@@ -2131,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0.214</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>3.5999999999999997E-2</v>
@@ -2169,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>9.4E-2</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>0.123</v>
@@ -2207,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>0.38600000000000001</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>7.0999999999999994E-2</v>
@@ -2245,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>0.23599999999999999</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>8.1000000000000003E-2</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>0.26900000000000002</v>
@@ -2290,27 +2290,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>22</v>
@@ -2326,30 +2326,30 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>5000000</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6">
         <v>4.9000000000000002E-2</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2400000</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6">
         <v>0.13300000000000001</v>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>2100000</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6">
         <v>0.19500000000000001</v>
@@ -2409,13 +2409,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>1500000</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <f>SUM(H4:H6)</f>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <f>H2+H7</f>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5">
         <v>0.08</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7">
         <f>H8/B3*100000</f>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>3000</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>62</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>22</v>
@@ -2475,20 +2475,20 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5">
         <v>0.7</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
         <v>0.2</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -2512,12 +2512,12 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6">
         <v>4.9000000000000002E-2</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6">
         <v>0.13300000000000001</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6">
         <v>0.19500000000000001</v>
@@ -2548,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D918A320-60E2-1247-8220-6DDDFA63C261}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2562,27 +2562,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>22</v>
@@ -2598,30 +2598,30 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>5000000</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="6">
         <v>4.9000000000000002E-2</v>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2400000</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6">
         <v>0.13300000000000001</v>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>2100000</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6">
         <v>0.19500000000000001</v>
@@ -2681,13 +2681,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>1500000</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <f>SUM(H4:H6)</f>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <f>H2+H7</f>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5">
         <v>0.08</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7">
         <f>H8/B3*100000</f>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>62</v>
@@ -2739,28 +2739,32 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>22</v>
       </c>
+      <c r="H12">
+        <f>Sheet4!H8-Sheet5!H8</f>
+        <v>23240</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5">
         <v>0.7</v>
@@ -2768,7 +2772,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
         <v>0.25</v>
@@ -2776,7 +2780,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5">
         <v>0.05</v>
@@ -2784,12 +2788,12 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6">
         <v>4.9000000000000002E-2</v>
@@ -2797,7 +2801,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6">
         <v>0.13300000000000001</v>
@@ -2805,7 +2809,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6">
         <v>0.19500000000000001</v>
